--- a/mergeoutput.xlsx
+++ b/mergeoutput.xlsx
@@ -724,7 +724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -877,52 +877,52 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>YHI</t>
+          <t>Repco</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>25-07-03</t>
+          <t>12-09-2025</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAND:MARSHAL MAL MH15 195/60R15 88H</t>
+          <t>EDGE 5W-30 LL 205L DRUM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TYRMALCN00009</t>
+          <t>CAST</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>130</v>
+        <v>1906.7</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>130</v>
+        <v>1906.7</v>
       </c>
       <c r="J5" t="n">
-        <v>65</v>
+        <v>5480.33</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>25 %</t>
+          <t>0 %</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>81.25</v>
+        <v>5480.33</v>
       </c>
       <c r="M5" t="n">
-        <v>8.119999999999999</v>
+        <v>190.67</v>
       </c>
       <c r="N5" t="n">
-        <v>89.37</v>
+        <v>5671</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="16">
@@ -931,52 +931,52 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>YHI</t>
+          <t>Wurth</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>25-07-03</t>
+          <t>12-09-2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FREIGHT CHARGES</t>
+          <t>Sealing ring, vehicle</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SG-FRT0000001</t>
+          <t>046411422</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>48.16</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I6" t="n">
-        <v>40</v>
+        <v>12.04</v>
       </c>
       <c r="J6" t="n">
-        <v>40</v>
+        <v>0.48</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>25 %</t>
+          <t>850 %</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>50</v>
+        <v>4.56</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>0.46</v>
       </c>
       <c r="N6" t="n">
-        <v>55</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="16">
@@ -985,38 +985,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>wurth</t>
+          <t>Wurth</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>25-06-06</t>
+          <t>12-09-2025</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sealing ring, vehicle RG-SEAL-DIN7603-HONDA-ALU-14X22X2</t>
+          <t>Radiator anti-freeze</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>046411422</t>
+          <t>0892352120</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>48.16</v>
+        <v>108</v>
       </c>
       <c r="G7" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>12.04</v>
+        <v>108</v>
       </c>
       <c r="J7" t="n">
-        <v>0.48</v>
+        <v>108</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1024,13 +1024,13 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4.56</v>
+        <v>1026</v>
       </c>
       <c r="M7" t="n">
-        <v>0.46</v>
+        <v>102.6</v>
       </c>
       <c r="N7" t="n">
-        <v>5.02</v>
+        <v>1128.6</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="16">
@@ -1039,38 +1039,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>wurth</t>
+          <t>Wurth</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>25-06-06</t>
+          <t>12-09-2025</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Copper sealing ring RG-SEAL-DIN7603-CU-C-ASBESTFREE-20X26</t>
+          <t>Brake fluid</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>046202026</t>
+          <t>089209820</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>324.82</v>
+        <v>281.15</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>64.95999999999999</v>
+        <v>281.17</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>281.17</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>30.87</v>
+        <v>2671.12</v>
       </c>
       <c r="M8" t="n">
-        <v>3.09</v>
+        <v>267.11</v>
       </c>
       <c r="N8" t="n">
-        <v>33.96</v>
+        <v>2938.23</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="16">
@@ -1093,38 +1093,38 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>wurth</t>
+          <t>Wurth</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>25-06-06</t>
+          <t>12-09-2025</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Radiator anti-freeze RADANTIFREZ-OAT-RED-20LTR</t>
+          <t>Button cell</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0892352020</t>
+          <t>0827082032</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>108</v>
+        <v>4.12</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>108.01</v>
+        <v>41.2</v>
       </c>
       <c r="J9" t="n">
-        <v>108.01</v>
+        <v>4.12</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1026.1</v>
+        <v>39.14</v>
       </c>
       <c r="M9" t="n">
-        <v>102.61</v>
+        <v>3.91</v>
       </c>
       <c r="N9" t="n">
-        <v>1128.71</v>
+        <v>43.05</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="16">
@@ -1147,38 +1147,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>wurth</t>
+          <t>Wurth</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>25-06-06</t>
+          <t>12-09-2025</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Halogen bulb, vehicle BULB-(H9005-HB3)-P20D-12V-60W</t>
+          <t>Button cell</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>07201103</t>
+          <t>0827082025</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>15.45</v>
+        <v>3.6</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>77.25</v>
+        <v>36</v>
       </c>
       <c r="J10" t="n">
-        <v>15.45</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>146.77</v>
+        <v>34.2</v>
       </c>
       <c r="M10" t="n">
-        <v>14.68</v>
+        <v>3.42</v>
       </c>
       <c r="N10" t="n">
-        <v>161.45</v>
+        <v>37.62</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="16">
@@ -1201,38 +1201,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>wurth</t>
+          <t>Wurth</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>25-06-06</t>
+          <t>12-09-2025</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Indicator/brake light bulb, vehicle BULB-INDCTR/BRK-P21/5W-BAY15D-12V-21/5W</t>
+          <t>Button cell</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>07201341</t>
+          <t>0827081616</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.87</v>
+        <v>5.23</v>
       </c>
       <c r="G11" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>57.4</v>
+        <v>52.3</v>
       </c>
       <c r="J11" t="n">
-        <v>2.87</v>
+        <v>5.23</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1240,13 +1240,13 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>27.26</v>
+        <v>49.69</v>
       </c>
       <c r="M11" t="n">
-        <v>2.73</v>
+        <v>4.97</v>
       </c>
       <c r="N11" t="n">
-        <v>29.99</v>
+        <v>54.66</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="16">
@@ -1255,38 +1255,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>wurth</t>
+          <t>Wurth</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>25-06-06</t>
+          <t>12-09-2025</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Silicone spray, universal CURTAIN-TRACK-LUBE-300G</t>
+          <t>Button cell</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0893125080</t>
+          <t>0827081620</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>12.95</v>
+        <v>5.52</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>12.95</v>
+        <v>55.2</v>
       </c>
       <c r="J12" t="n">
-        <v>12.95</v>
+        <v>5.52</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>123.02</v>
+        <v>52.44</v>
       </c>
       <c r="M12" t="n">
-        <v>12.3</v>
+        <v>5.24</v>
       </c>
       <c r="N12" t="n">
-        <v>135.32</v>
+        <v>57.68</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="16">
@@ -1309,38 +1309,38 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>wurth</t>
+          <t>Wurth</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>25-06-06</t>
+          <t>12-09-2025</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Carburettor and throttle valve cleaner THRTLVLVECLNR-400G</t>
+          <t>Windscreen wiper, spare blade</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1893100</t>
+          <t>0848610006</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>11.21</v>
+        <v>4.17</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I13" t="n">
-        <v>11.21</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>11.21</v>
+        <v>4.17</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1348,13 +1348,13 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>106.5</v>
+        <v>39.62</v>
       </c>
       <c r="M13" t="n">
-        <v>10.65</v>
+        <v>3.96</v>
       </c>
       <c r="N13" t="n">
-        <v>117.15</v>
+        <v>43.58</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="16">
@@ -1363,38 +1363,38 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>wurth</t>
+          <t>Wurth</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>25-06-06</t>
+          <t>12-09-2025</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Deodoriser DEODOR-500ML</t>
+          <t>Glass socket bulb, vehicle</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>089313920</t>
+          <t>07201621</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>34.16</v>
+        <v>1.61</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>68.31999999999999</v>
+        <v>16.1</v>
       </c>
       <c r="J14" t="n">
-        <v>34.16</v>
+        <v>1.61</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>324.52</v>
+        <v>15.3</v>
       </c>
       <c r="M14" t="n">
-        <v>32.45</v>
+        <v>1.53</v>
       </c>
       <c r="N14" t="n">
-        <v>356.97</v>
+        <v>16.83</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="16">
@@ -1417,38 +1417,38 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>wurth</t>
+          <t>Wurth</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>25-06-06</t>
+          <t>12-09-2025</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Handling FREIGHT LUMP SUM</t>
+          <t>Indicator/brake light bulb, vehicle</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0996000110</t>
+          <t>072013411</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>14.95</v>
+        <v>3.96</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I15" t="n">
-        <v>14.95</v>
+        <v>39.6</v>
       </c>
       <c r="J15" t="n">
-        <v>14.95</v>
+        <v>3.96</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1456,13 +1456,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>142.02</v>
+        <v>37.62</v>
       </c>
       <c r="M15" t="n">
-        <v>14.2</v>
+        <v>3.76</v>
       </c>
       <c r="N15" t="n">
-        <v>156.22</v>
+        <v>41.38</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="16">
@@ -1471,26 +1471,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Repco</t>
+          <t>Wurth</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>12-09-2025</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>EDGE 5W-30 LL 205L DRUM</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CAST</t>
+          <t>0996000110</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1906.7</v>
+        <v>14.95</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1499,24 +1499,24 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1906.7</v>
+        <v>14.95</v>
       </c>
       <c r="J16" t="n">
-        <v>5480.33</v>
+        <v>14.95</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0 %</t>
+          <t>850 %</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5480.33</v>
+        <v>142.02</v>
       </c>
       <c r="M16" t="n">
-        <v>190.67</v>
+        <v>14.2</v>
       </c>
       <c r="N16" t="n">
-        <v>5671</v>
+        <v>156.22</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="16">
@@ -1525,52 +1525,52 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Wurth</t>
+          <t>YHI</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>12-09-2025</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sealing ring, vehicle</t>
+          <t>BRAND:MARSHAL MAL MH15 165/65R14 79H PC</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>046411422</t>
+          <t>TYRMALCN00046</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>48.16</v>
+        <v>310.72</v>
       </c>
       <c r="G17" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>12.04</v>
+        <v>310.72</v>
       </c>
       <c r="J17" t="n">
-        <v>0.48</v>
+        <v>77.68000000000001</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>850 %</t>
+          <t>25 %</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4.56</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>0.46</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="N17" t="n">
-        <v>5.02</v>
+        <v>106.81</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="16">
@@ -1579,52 +1579,52 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Wurth</t>
+          <t>YHI</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>13-09-2025</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Radiator anti-freeze</t>
+          <t>BRAND:MARSHAL MAL MH15 165/65R14 79H PC</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0892352120</t>
+          <t>TYRMALCN00046</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>108</v>
+        <v>310.72</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>108</v>
+        <v>310.72</v>
       </c>
       <c r="J18" t="n">
-        <v>108</v>
+        <v>77.68000000000001</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>850 %</t>
+          <t>25 %</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1026</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="M18" t="n">
-        <v>102.6</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="N18" t="n">
-        <v>1128.6</v>
+        <v>106.81</v>
       </c>
     </row>
     <row r="19">
@@ -1638,33 +1638,33 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>13-09-2025</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Brake fluid</t>
+          <t>Sealing ring, vehicle</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>089209820</t>
+          <t>046411422</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>281.15</v>
+        <v>48.16</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I19" t="n">
-        <v>281.17</v>
+        <v>12.04</v>
       </c>
       <c r="J19" t="n">
-        <v>281.17</v>
+        <v>0.48</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1672,13 +1672,13 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2671.12</v>
+        <v>4.56</v>
       </c>
       <c r="M19" t="n">
-        <v>267.11</v>
+        <v>0.46</v>
       </c>
       <c r="N19" t="n">
-        <v>2938.23</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="20">
@@ -1692,33 +1692,33 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>13-09-2025</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Button cell</t>
+          <t>Radiator anti-freeze</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0827082032</t>
+          <t>0892352120</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.12</v>
+        <v>108</v>
       </c>
       <c r="G20" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>41.2</v>
+        <v>108</v>
       </c>
       <c r="J20" t="n">
-        <v>4.12</v>
+        <v>108</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1726,13 +1726,13 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>39.14</v>
+        <v>1026</v>
       </c>
       <c r="M20" t="n">
-        <v>3.91</v>
+        <v>102.6</v>
       </c>
       <c r="N20" t="n">
-        <v>43.05</v>
+        <v>1128.6</v>
       </c>
     </row>
     <row r="21">
@@ -1746,33 +1746,33 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>13-09-2025</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Button cell</t>
+          <t>Brake fluid</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0827082025</t>
+          <t>089209820</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.6</v>
+        <v>281.15</v>
       </c>
       <c r="G21" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>36</v>
+        <v>281.17</v>
       </c>
       <c r="J21" t="n">
-        <v>3.6</v>
+        <v>281.17</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1780,13 +1780,13 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>34.2</v>
+        <v>2671.12</v>
       </c>
       <c r="M21" t="n">
-        <v>3.42</v>
+        <v>267.11</v>
       </c>
       <c r="N21" t="n">
-        <v>37.62</v>
+        <v>2938.23</v>
       </c>
     </row>
     <row r="22">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>13-09-2025</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1810,11 +1810,11 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0827081616</t>
+          <t>0827082032</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.23</v>
+        <v>4.12</v>
       </c>
       <c r="G22" t="n">
         <v>10</v>
@@ -1823,10 +1823,10 @@
         <v>10</v>
       </c>
       <c r="I22" t="n">
-        <v>52.3</v>
+        <v>41.2</v>
       </c>
       <c r="J22" t="n">
-        <v>5.23</v>
+        <v>4.12</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1834,13 +1834,13 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>49.69</v>
+        <v>39.14</v>
       </c>
       <c r="M22" t="n">
-        <v>4.97</v>
+        <v>3.91</v>
       </c>
       <c r="N22" t="n">
-        <v>54.66</v>
+        <v>43.05</v>
       </c>
     </row>
     <row r="23">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>13-09-2025</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1864,11 +1864,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0827081620</t>
+          <t>0827082025</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5.52</v>
+        <v>3.6</v>
       </c>
       <c r="G23" t="n">
         <v>10</v>
@@ -1877,10 +1877,10 @@
         <v>10</v>
       </c>
       <c r="I23" t="n">
-        <v>55.2</v>
+        <v>36</v>
       </c>
       <c r="J23" t="n">
-        <v>5.52</v>
+        <v>3.6</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1888,13 +1888,13 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>52.44</v>
+        <v>34.2</v>
       </c>
       <c r="M23" t="n">
-        <v>5.24</v>
+        <v>3.42</v>
       </c>
       <c r="N23" t="n">
-        <v>57.68</v>
+        <v>37.62</v>
       </c>
     </row>
     <row r="24">
@@ -1908,33 +1908,33 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>13-09-2025</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Windscreen wiper, spare blade</t>
+          <t>Button cell</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0848610006</t>
+          <t>0827081616</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.17</v>
+        <v>5.23</v>
       </c>
       <c r="G24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I24" t="n">
-        <v>83.40000000000001</v>
+        <v>52.3</v>
       </c>
       <c r="J24" t="n">
-        <v>4.17</v>
+        <v>5.23</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>39.62</v>
+        <v>49.69</v>
       </c>
       <c r="M24" t="n">
-        <v>3.96</v>
+        <v>4.97</v>
       </c>
       <c r="N24" t="n">
-        <v>43.58</v>
+        <v>54.66</v>
       </c>
     </row>
     <row r="25">
@@ -1962,21 +1962,21 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>13-09-2025</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Glass socket bulb, vehicle</t>
+          <t>Button cell</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>07201621</t>
+          <t>0827081620</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.61</v>
+        <v>5.52</v>
       </c>
       <c r="G25" t="n">
         <v>10</v>
@@ -1985,10 +1985,10 @@
         <v>10</v>
       </c>
       <c r="I25" t="n">
-        <v>16.1</v>
+        <v>55.2</v>
       </c>
       <c r="J25" t="n">
-        <v>1.61</v>
+        <v>5.52</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1996,13 +1996,13 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>15.3</v>
+        <v>52.44</v>
       </c>
       <c r="M25" t="n">
-        <v>1.53</v>
+        <v>5.24</v>
       </c>
       <c r="N25" t="n">
-        <v>16.83</v>
+        <v>57.68</v>
       </c>
     </row>
     <row r="26">
@@ -2016,47 +2016,47 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>13-09-2025</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Indicator/brake light bulb, vehicle</t>
+          <t>Windscreen wiper, spare blade</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>072013411</t>
+          <t>0848610006</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="G26" t="n">
+        <v>20</v>
+      </c>
+      <c r="H26" t="n">
+        <v>20</v>
+      </c>
+      <c r="I26" t="n">
+        <v>83.40000000000001</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>850 %</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>39.62</v>
+      </c>
+      <c r="M26" t="n">
         <v>3.96</v>
       </c>
-      <c r="G26" t="n">
-        <v>10</v>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-      <c r="I26" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>850 %</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>37.62</v>
-      </c>
-      <c r="M26" t="n">
-        <v>3.76</v>
-      </c>
       <c r="N26" t="n">
-        <v>41.38</v>
+        <v>43.58</v>
       </c>
     </row>
     <row r="27">
@@ -2070,46 +2070,154 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>13-09-2025</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>Glass socket bulb, vehicle</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>07201621</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G27" t="n">
+        <v>10</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>850 %</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N27" t="n">
+        <v>16.83</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>24</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Wurth</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>13-09-2025</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Indicator/brake light bulb, vehicle</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>072013411</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10</v>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+      <c r="I28" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>850 %</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>37.62</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="N28" t="n">
+        <v>41.38</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>25</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Wurth</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>13-09-2025</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>Freight</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>0996000110</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="F29" t="n">
         <v>14.95</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G29" t="n">
         <v>1</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H29" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I29" t="n">
         <v>14.95</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J29" t="n">
         <v>14.95</v>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>850 %</t>
         </is>
       </c>
-      <c r="L27" t="n">
+      <c r="L29" t="n">
         <v>142.02</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M29" t="n">
         <v>14.2</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N29" t="n">
         <v>156.22</v>
       </c>
     </row>
